--- a/Pegasus_Servo_Interface_V1/Pegasus_Servo_Interface_V1_BOM.xlsx
+++ b/Pegasus_Servo_Interface_V1/Pegasus_Servo_Interface_V1_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\teTra\Pegasus_Servo_Interface\Pegasus_Servo_Interface_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAFF4FF-3577-422C-9C44-DE96E6CFBED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657904F1-8D9D-4C19-99B0-51AD9583DD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>Item</t>
   </si>
@@ -280,6 +280,28 @@
   </si>
   <si>
     <t>https://akizukidenshi.com/catalog/g/g106282/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connector Header Through Hole, Right Angle 4 position 0.165" (4.20mm)</t>
+  </si>
+  <si>
+    <t>Connector_Molex:Molex_Mini-Fit_Jr_5569-04A2_2x02_P4.20mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.molex.com/en-us/products/part-detail/26013115?display=pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/molex/0026013115/4119889</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molex 5569</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,36 +954,36 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1">
+        <v>26013115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -969,24 +991,53 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1005,14 +1056,16 @@
     <hyperlink ref="F5" r:id="rId10" xr:uid="{D4883D59-D4D2-44F0-A35A-8104AAA8D0F0}"/>
     <hyperlink ref="H6" r:id="rId11" xr:uid="{6CC1904F-5768-4D3D-B651-1523B8AA5A15}"/>
     <hyperlink ref="H7" r:id="rId12" xr:uid="{9DA2C515-9F7F-4B4E-8387-20238CA27FB4}"/>
-    <hyperlink ref="H10" r:id="rId13" xr:uid="{B9CCD4DB-8D8A-41C3-9C10-623BA82E5431}"/>
-    <hyperlink ref="H11" r:id="rId14" xr:uid="{4F7B65FC-9BB3-4EB4-A8F3-E237706CF00A}"/>
-    <hyperlink ref="F11" r:id="rId15" xr:uid="{F546ECD3-754A-44B4-82AC-B4AB67D5A53D}"/>
-    <hyperlink ref="F10" r:id="rId16" xr:uid="{3E43BDE4-F767-49BC-B263-0831429D29C1}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{B9CCD4DB-8D8A-41C3-9C10-623BA82E5431}"/>
+    <hyperlink ref="H12" r:id="rId14" xr:uid="{4F7B65FC-9BB3-4EB4-A8F3-E237706CF00A}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{F546ECD3-754A-44B4-82AC-B4AB67D5A53D}"/>
+    <hyperlink ref="F11" r:id="rId16" xr:uid="{3E43BDE4-F767-49BC-B263-0831429D29C1}"/>
     <hyperlink ref="F8" r:id="rId17" xr:uid="{E0076918-8A7B-4E7A-AF9C-1BAA43E3EE08}"/>
     <hyperlink ref="F7" r:id="rId18" xr:uid="{73A90B83-4D97-4B07-9D84-133EBDA068D3}"/>
     <hyperlink ref="F6" r:id="rId19" xr:uid="{63249ED9-ACBC-42DE-A5BC-375400BFA588}"/>
     <hyperlink ref="F4" r:id="rId20" xr:uid="{2E3D8B29-AD89-4794-882E-9EE825FA0C5D}"/>
+    <hyperlink ref="F10" r:id="rId21" xr:uid="{C1C700EE-0C64-4205-9B5E-F4A2DE1B1283}"/>
+    <hyperlink ref="H10" r:id="rId22" xr:uid="{7CE421C7-039D-4777-8BEA-5BA22CF09630}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
